--- a/merise/TP2_SQL_lmd_tp_avion_vide/db_avion_vide.xlsx
+++ b/merise/TP2_SQL_lmd_tp_avion_vide/db_avion_vide.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arfpasso-my.sharepoint.com/personal/fturleque_arfp_asso_fr/Documents/Documents/CDA/Exercices/TP2_SQL_lmd_tp_avion_vide/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stagiaire\Documents\GitHub\FTurleque\CDA_2111\merise\TP2_SQL_lmd_tp_avion_vide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="144" documentId="11_AD4D9D64A577C15A4A5418D880DF534E5ADEDD81" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E8DB325-A46A-4CC0-BD62-42B488A1F402}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72608D8-8975-4B5E-8283-0BA35E9EED54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="10590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="360" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -315,12 +315,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -376,6 +370,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,7 +618,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -635,9 +635,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -668,67 +665,79 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1013,9 +1022,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1040,27 +1049,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="G1" s="17" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="G1" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="K1" s="17" t="s">
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="K1" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
     </row>
     <row r="2" spans="1:17" s="5" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -1109,560 +1118,560 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="15" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+    <row r="3" spans="1:17" s="14" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>100</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>300</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>1</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="37">
         <v>100</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="7">
         <v>1</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="7">
         <v>7</v>
       </c>
-      <c r="Q3" s="14">
+      <c r="Q3" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="15" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+    <row r="4" spans="1:17" s="14" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>101</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>250</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>2</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="39">
         <v>100</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="9">
         <v>2</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="9">
         <v>11</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="10">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="15" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+    <row r="5" spans="1:17" s="14" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>102</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>300</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>3</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="9">
         <v>101</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="9">
         <v>1</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="9">
         <v>12</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="10">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="15" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+    <row r="6" spans="1:17" s="14" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>103</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>200</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>4</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="39">
         <v>105</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="9">
         <v>3</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="9">
         <v>9</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="10">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="15" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+    <row r="7" spans="1:17" s="14" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>104</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>400</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>5</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="39">
         <v>105</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="9">
         <v>3</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="9">
         <v>17</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="10">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="15" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+    <row r="8" spans="1:17" s="14" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>105</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>300</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>6</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="9">
         <v>107</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="9">
         <v>7</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="N8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="9">
         <v>6</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="15" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+    <row r="9" spans="1:17" s="14" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>106</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>50</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>7</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="39">
         <v>109</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="9">
         <v>8</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="N9" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="O9" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="9">
         <v>10</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="10">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="15" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+    <row r="10" spans="1:17" s="14" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>107</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>300</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>8</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="9">
         <v>106</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="9">
         <v>9</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="N10" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="O10" s="10" t="s">
+      <c r="O10" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10" s="9">
         <v>7</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q10" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="15" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+    <row r="11" spans="1:17" s="14" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
         <v>108</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>300</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <v>9</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="9">
         <v>106</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="9">
         <v>9</v>
       </c>
-      <c r="N11" s="10" t="s">
+      <c r="N11" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="O11" s="10" t="s">
+      <c r="O11" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11" s="9">
         <v>19</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q11" s="10">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="15" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+    <row r="12" spans="1:17" s="14" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>109</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>350</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="9">
         <v>107</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="9">
         <v>7</v>
       </c>
-      <c r="N12" s="10" t="s">
+      <c r="N12" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="10" t="s">
+      <c r="O12" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="P12" s="10">
+      <c r="P12" s="9">
         <v>18</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="Q12" s="10">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="15" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="K13" s="9" t="s">
+    <row r="13" spans="1:17" s="14" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="K13" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="39">
         <v>102</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M13" s="9">
         <v>2</v>
       </c>
-      <c r="N13" s="10" t="s">
+      <c r="N13" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="O13" s="10" t="s">
+      <c r="O13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="P13" s="10">
+      <c r="P13" s="9">
         <v>15</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q13" s="10">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="15" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="K14" s="9" t="s">
+    <row r="14" spans="1:17" s="14" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="K14" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="39">
         <v>101</v>
       </c>
-      <c r="M14" s="10">
+      <c r="M14" s="9">
         <v>4</v>
       </c>
-      <c r="N14" s="10" t="s">
+      <c r="N14" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="O14" s="10" t="s">
+      <c r="O14" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="P14" s="10">
+      <c r="P14" s="9">
         <v>17</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="Q14" s="10">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="15" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="K15" s="9" t="s">
+    <row r="15" spans="1:17" s="14" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="K15" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="9">
         <v>103</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M15" s="9">
         <v>5</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="N15" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="O15" s="10" t="s">
+      <c r="O15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="P15" s="10">
+      <c r="P15" s="9">
         <v>11</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q15" s="10">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="15" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K16" s="16" t="s">
+    <row r="16" spans="1:17" s="14" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K16" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="11">
         <v>104</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="11">
         <v>6</v>
       </c>
-      <c r="N16" s="12" t="s">
+      <c r="N16" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="O16" s="12" t="s">
+      <c r="O16" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="P16" s="12">
+      <c r="P16" s="11">
         <v>13</v>
       </c>
-      <c r="Q16" s="13">
+      <c r="Q16" s="12">
         <v>15</v>
       </c>
     </row>
-    <row r="17" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
@@ -1678,554 +1687,554 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75F3C0F-2352-4C7A-965C-648532153F32}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="21.42578125" style="27"/>
+    <col min="1" max="1" width="8.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="21.42578125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="22" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:11" s="20" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="25" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:11" s="23" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="16">
         <v>300</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="18">
         <v>100</v>
       </c>
-      <c r="G2" s="37">
+      <c r="G2" s="35">
         <v>1</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="18">
         <v>7</v>
       </c>
-      <c r="K2" s="21">
+      <c r="K2" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="26" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:11" s="24" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="16">
         <v>300</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="18">
         <v>100</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="27">
         <v>2</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="18">
         <v>11</v>
       </c>
-      <c r="K3" s="21">
+      <c r="K3" s="19">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="26" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:11" s="24" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="16">
         <v>300</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="18">
         <v>105</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="28">
         <v>3</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="18">
         <v>9</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="19">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="26" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+    <row r="5" spans="1:11" s="24" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="16">
         <v>300</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="18">
         <v>105</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="28">
         <v>3</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="18">
         <v>17</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="19">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="26" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:11" s="24" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="16">
         <v>350</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="18">
         <v>109</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="29">
         <v>8</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="18">
         <v>10</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="19">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="26" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:11" s="24" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="16">
         <v>300</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="18">
         <v>102</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="27">
         <v>2</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="18">
         <v>15</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="19">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="26" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:11" s="24" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="16">
         <v>50</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="18">
         <v>106</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="30">
         <v>9</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="18">
         <v>7</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="19">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="26" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:11" s="24" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="16">
         <v>50</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="18">
         <v>106</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="30">
         <v>9</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="18">
         <v>19</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="19">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="26" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="1:11" s="24" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="16">
         <v>250</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="18">
         <v>101</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="35">
         <v>1</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="18">
         <v>12</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="19">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="26" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:11" s="24" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="16">
         <v>300</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="18">
         <v>107</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="31">
         <v>7</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="18">
         <v>6</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="26" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+    <row r="12" spans="1:11" s="24" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="16">
         <v>300</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="18">
         <v>107</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="31">
         <v>7</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="18">
         <v>18</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="19">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="26" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:11" s="24" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="16">
         <v>250</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="18">
         <v>101</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="32">
         <v>4</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="18">
         <v>17</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="19">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="26" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
+    <row r="14" spans="1:11" s="24" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="16">
         <v>400</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="18">
         <v>104</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="33">
         <v>6</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="18">
         <v>13</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="19">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="26" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:11" s="24" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="16">
         <v>200</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="18">
         <v>103</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="34">
         <v>5</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="J15" s="20">
+      <c r="J15" s="18">
         <v>11</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="19">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K15">
     <sortCondition ref="B1:B15"/>
